--- a/biology/Médecine/Nathalie_Zand/Nathalie_Zand.xlsx
+++ b/biology/Médecine/Nathalie_Zand/Nathalie_Zand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Natalia Zylberlast-Zand (le 28 mars 1883 ou 1884 à Varsovie - 23 ou 24 septembre 1942) est une  neurologue juive polonaise[1],[2].
-Elle est la fille de David et Emilia Zand, née Batawia. Zand était chercheur et contribuait régulièrement à des publications francophones. Elle collabore notamment avec Edward Flatau, autre figure marquante de la neurologie polonaise du début du XXe siècle. En 1930, elle publie le livre Les plexus choroïdes : Anatomie, physiologie, pathologie sur les plexus choroïdes[3]. Avant la Seconde guerre mondiale , elle travaille à l'hôpital juif de Czyste, Wola, à Varsovie.
-Durant la guerre, elle est emprisonnée dans le ghetto de Varsovie, où elle continue de travailler comme médecin. La nuit du 23 au 24 septembre 1942, elle est déportée à la prison de Pawiak, où elle est probablement exécutée[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natalia Zylberlast-Zand (le 28 mars 1883 ou 1884 à Varsovie - 23 ou 24 septembre 1942) est une  neurologue juive polonaise,.
+Elle est la fille de David et Emilia Zand, née Batawia. Zand était chercheur et contribuait régulièrement à des publications francophones. Elle collabore notamment avec Edward Flatau, autre figure marquante de la neurologie polonaise du début du XXe siècle. En 1930, elle publie le livre Les plexus choroïdes : Anatomie, physiologie, pathologie sur les plexus choroïdes. Avant la Seconde guerre mondiale , elle travaille à l'hôpital juif de Czyste, Wola, à Varsovie.
+Durant la guerre, elle est emprisonnée dans le ghetto de Varsovie, où elle continue de travailler comme médecin. La nuit du 23 au 24 septembre 1942, elle est déportée à la prison de Pawiak, où elle est probablement exécutée.
 </t>
         </is>
       </c>
